--- a/romjist_data.xlsx
+++ b/romjist_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selcuk.ogutcu\Documents\Python\data mining\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE0011E-2704-4689-89DF-A1AAA99D6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A8AE4C-919E-407A-BE20-423A1346669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>HCO3</t>
   </si>
   <si>
-    <t>LD</t>
-  </si>
-  <si>
     <t>D-dimer</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>ONE_M_M</t>
+  </si>
+  <si>
+    <t>LAC</t>
   </si>
 </sst>
 </file>
@@ -442,17 +442,17 @@
   <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -500,13 +500,13 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S1" t="s">
         <v>0</v>
       </c>
       <c r="T1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
